--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367160.5609595615</v>
+        <v>-369690.815734464</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13116869.22737004</v>
+        <v>13116869.22737005</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>315.3056449704197</v>
       </c>
       <c r="C2" t="n">
-        <v>124.5775091140465</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>263.8200148902124</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>57.77506654172652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +832,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>170.379599908655</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191728993</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>24.14763241892816</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>146.908382160449</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>156.0264938475094</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>234.2694209123228</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>52.83391759428021</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>191.0001693352789</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>111.7281770469292</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.3842717819813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>76.95889114479584</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>254.0326278306843</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>251.1196674903453</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>127.6210071331219</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>86.26216629270496</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>162.15148309706</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>121.2558461704858</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>126.4643665640119</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.1838954824118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>33.26272630933912</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>80.90831282609496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>180.6670586121385</v>
+        <v>192.9569204599013</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,13 +3901,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>747.626661887866</v>
+        <v>1283.357110060378</v>
       </c>
       <c r="C2" t="n">
-        <v>621.7907940958999</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="D2" t="n">
-        <v>621.7907940958999</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E2" t="n">
-        <v>621.7907940958999</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>621.7907940958999</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.365833927799</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1134.226501951988</v>
+        <v>1601.847660535549</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710445</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1606.346846238685</v>
+        <v>833.9149192343714</v>
       </c>
       <c r="C4" t="n">
-        <v>1547.988193166234</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D4" t="n">
-        <v>1397.871553753899</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.871553753899</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255988</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110472</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2236.777441110472</v>
+        <v>1464.345514106159</v>
       </c>
       <c r="V4" t="n">
-        <v>2236.777441110472</v>
+        <v>1464.345514106159</v>
       </c>
       <c r="W4" t="n">
-        <v>2236.777441110472</v>
+        <v>1464.345514106159</v>
       </c>
       <c r="X4" t="n">
-        <v>2008.787890212455</v>
+        <v>1236.355963208141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1787.995311068925</v>
+        <v>1015.563384064611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221566</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744041</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761599</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269564</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271513</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271513</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271513</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>214.9044216447581</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>214.9044216447581</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271513</v>
+        <v>812.4521743667135</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271513</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1808.800296392465</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392465</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1734.365084113464</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1445.262217239107</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1190.57772903322</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>901.1605589962596</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1605589962596</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,58 +5027,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092265</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434727</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155659</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>403.008615220837</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>256.1186677229266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973712</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782979</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038366</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797769</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.862466540123</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1466.177978334236</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.760808297275</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7712573992578</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.9786782557277</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.841029837709</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U19" t="n">
-        <v>1957.373282952344</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V19" t="n">
-        <v>1702.688794746457</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.271624709496</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.282073811479</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679487</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>802.9288273958734</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>652.8121879835377</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>504.8990944011446</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>358.0091469032342</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2252.17559542457</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6224,7 +6224,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280589</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2413.364370136484</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2230.509535791388</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2230.509535791388</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1505.893875458607</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W37" t="n">
-        <v>1216.476705421646</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="X37" t="n">
-        <v>988.4871545236284</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,10 +7549,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580114</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184728</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>67.4281966930609</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71.32026557464332</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>147.7276878827416</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1398665102875</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>148.7507642442413</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.15184655855984</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>53.40527886852264</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>199.9223080965392</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.095338001567882</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.12601365260463</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>44.26829212178305</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>54.5619194376327</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.40075786968296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>33.11252040078257</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>71.4705847116895</v>
+        <v>59.18072286392672</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1139154.399041194</v>
+        <v>1139154.399041193</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1139154.399041194</v>
+        <v>1139154.399041193</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1139154.399041194</v>
+        <v>1139154.399041193</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1139154.399041194</v>
+        <v>1139154.399041193</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350416</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79513.71540476766</v>
+        <v>79513.71540476785</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312018</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312024</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768901</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486236</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035660.34548549</v>
+        <v>-1035916.214724901</v>
       </c>
       <c r="C6" t="n">
-        <v>-113142.2418141198</v>
+        <v>-113142.2418141203</v>
       </c>
       <c r="D6" t="n">
-        <v>90296.49979798539</v>
+        <v>90296.49979798574</v>
       </c>
       <c r="E6" t="n">
-        <v>-153980.8260615292</v>
+        <v>-154015.5639869648</v>
       </c>
       <c r="F6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="G6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="H6" t="n">
-        <v>171431.6357458264</v>
+        <v>171396.8978203905</v>
       </c>
       <c r="I6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="J6" t="n">
-        <v>3826.45793584366</v>
+        <v>3791.720010407909</v>
       </c>
       <c r="K6" t="n">
-        <v>122321.5430397717</v>
+        <v>122286.8051143359</v>
       </c>
       <c r="L6" t="n">
-        <v>171431.6357458261</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="M6" t="n">
-        <v>86376.60781031431</v>
+        <v>86341.86988487859</v>
       </c>
       <c r="N6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="O6" t="n">
         <v>146834.7820200897</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>240.695382656961</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>283.3627760460396</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>109.4717545569013</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>115.8475542125456</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805542</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.0903062371254</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>19.11742609857924</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>69.68316154152771</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>131.0034708586847</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>28.54877994089031</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>106.8564763051655</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847171</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>396.970088694367</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,10 +32944,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>229.6463482471742</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437446</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420051</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103582</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295559</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723487</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.80490927281522</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>27.13475084531535</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
